--- a/krumpli/0. Verzió.xlsx
+++ b/krumpli/0. Verzió.xlsx
@@ -9,10 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Munka1" sheetId="1" r:id="rId1"/>
+    <sheet name="1. normál" sheetId="1" r:id="rId1"/>
+    <sheet name="2. normál" sheetId="2" r:id="rId2"/>
+    <sheet name="Munka2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="21">
   <si>
     <t>Rendelésszám</t>
   </si>
@@ -417,8 +419,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J1" activeCellId="2" sqref="A1:A5 G1:G5 J1:J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -611,4 +613,192 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q5"/>
+  <sheetViews>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.28515625" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="2">
+        <v>43357</v>
+      </c>
+      <c r="F2" s="2">
+        <v>43365</v>
+      </c>
+      <c r="G2">
+        <v>550</v>
+      </c>
+      <c r="J2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2">
+        <v>125</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="2">
+        <v>43357</v>
+      </c>
+      <c r="F3" s="2">
+        <v>43365</v>
+      </c>
+      <c r="G3">
+        <v>1375</v>
+      </c>
+      <c r="J3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L3">
+        <v>300</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="J4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4">
+        <v>500</v>
+      </c>
+      <c r="O4">
+        <v>2</v>
+      </c>
+      <c r="P4" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="O5">
+        <v>2</v>
+      </c>
+      <c r="P5" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q5">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/krumpli/0. Verzió.xlsx
+++ b/krumpli/0. Verzió.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="21">
   <si>
     <t>Rendelésszám</t>
   </si>
@@ -95,7 +95,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,6 +106,15 @@
     </font>
     <font>
       <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -133,10 +142,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -619,8 +629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q5"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -793,12 +803,187 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R1" sqref="R1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="13.85546875" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1"/>
+    <col min="5" max="6" width="11" customWidth="1"/>
+    <col min="13" max="13" width="15.7109375" customWidth="1"/>
+    <col min="15" max="15" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="O1" t="s">
+        <v>9</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="S1" t="s">
+        <v>2</v>
+      </c>
+      <c r="T1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>43357</v>
+      </c>
+      <c r="D2" s="2">
+        <v>43365</v>
+      </c>
+      <c r="E2">
+        <v>550</v>
+      </c>
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2">
+        <v>125</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O2">
+        <v>2</v>
+      </c>
+      <c r="R2">
+        <v>1</v>
+      </c>
+      <c r="S2" t="s">
+        <v>11</v>
+      </c>
+      <c r="T2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2">
+        <v>43357</v>
+      </c>
+      <c r="D3" s="2">
+        <v>43365</v>
+      </c>
+      <c r="E3">
+        <v>1375</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3">
+        <v>300</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="R3">
+        <v>2</v>
+      </c>
+      <c r="S3" t="s">
+        <v>17</v>
+      </c>
+      <c r="T3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4">
+        <v>500</v>
+      </c>
+      <c r="M4">
+        <v>2</v>
+      </c>
+      <c r="N4" t="s">
+        <v>13</v>
+      </c>
+      <c r="O4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="M5">
+        <v>2</v>
+      </c>
+      <c r="N5" t="s">
+        <v>19</v>
+      </c>
+      <c r="O5">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>